--- a/Definitions/q_Definitions_Node_JS.xlsx
+++ b/Definitions/q_Definitions_Node_JS.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
     <sheet name="Definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="NPM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Topics</t>
   </si>
@@ -38,6 +39,71 @@
     <t>1. libuv: high performance cross platform evented I/O library
 2. V8: Google's javascript engine
 2. custom C++, js: custom C++ and javascript code developed specifically for node platform only</t>
+  </si>
+  <si>
+    <t>Node JS Definitions</t>
+  </si>
+  <si>
+    <t>NPM</t>
+  </si>
+  <si>
+    <t>command to check the version of node</t>
+  </si>
+  <si>
+    <t>command to check the version of npm</t>
+  </si>
+  <si>
+    <t>package.json</t>
+  </si>
+  <si>
+    <t>heart of every node application. It is a manifest file that describes our application, our dependencies, the version and other features of our application.</t>
+  </si>
+  <si>
+    <t>NPM documentation</t>
+  </si>
+  <si>
+    <t>https://docs.npmjs.com/</t>
+  </si>
+  <si>
+    <t>npm -v
+npm --version</t>
+  </si>
+  <si>
+    <t>node -v
+node --version</t>
+  </si>
+  <si>
+    <t>npm init</t>
+  </si>
+  <si>
+    <t>npm initialization. Creates package.json file</t>
+  </si>
+  <si>
+    <t>initializing project using npm</t>
+  </si>
+  <si>
+    <t>1. Create any folder. Go inside that folder
+2. run "npm init"
+3. This will ask for details, enter them 
+4. now package.json will be created in the folder</t>
+  </si>
+  <si>
+    <t>Installing npm</t>
+  </si>
+  <si>
+    <t>When we install node js, npm will also be installed</t>
+  </si>
+  <si>
+    <t>scripts in package.json</t>
+  </si>
+  <si>
+    <t>we can define any arbitrary number of scripts that we can use npm to execute.</t>
+  </si>
+  <si>
+    <t>update npm to latest available version -&gt; run this command from cmd</t>
+  </si>
+  <si>
+    <t>npm install -g npm@latest</t>
   </si>
 </sst>
 </file>
@@ -132,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -149,6 +215,15 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -465,7 +540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -484,16 +559,19 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
     <hyperlink ref="A2" location="Definitions!A1" display="Definitions"/>
+    <hyperlink ref="A3" location="NPM!A1" display="NPM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -501,11 +579,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -523,10 +601,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="10"/>
+      <c r="B2" s="13"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
@@ -543,14 +621,14 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="13"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="15"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -560,49 +638,48 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="10"/>
-    </row>
-    <row r="13" spans="1:2" ht="45">
-      <c r="A13" s="7" t="s">
+      <c r="B12" s="13"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="14" spans="1:2" ht="45">
+      <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B14" s="8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1"/>
+    <row r="15" spans="1:2" ht="30">
+      <c r="A15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9"/>
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9"/>
+      <c r="A21" s="12"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="1"/>
+      <c r="A22" s="12"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
@@ -622,19 +699,23 @@
       <c r="B26" s="1"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9"/>
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="9"/>
+      <c r="A28" s="12"/>
       <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="12"/>
+      <c r="B29" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A21:A22"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A8:B8"/>
   </mergeCells>
@@ -644,4 +725,117 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="2" max="2" width="121.5703125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="13"/>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13"/>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="30">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="60">
+      <c r="A10" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A2:B2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B1" location="NPM!A2" display="Up"/>
+    <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
+    <hyperlink ref="B3" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Definitions/q_Definitions_Node_JS.xlsx
+++ b/Definitions/q_Definitions_Node_JS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
   <si>
     <t>Topics</t>
   </si>
@@ -104,13 +104,181 @@
   </si>
   <si>
     <t>npm install -g npm@latest</t>
+  </si>
+  <si>
+    <t>command to run the run script</t>
+  </si>
+  <si>
+    <t>npm run-script [name-of-the-script]</t>
+  </si>
+  <si>
+    <t>npm run [name-of-the-script]</t>
+  </si>
+  <si>
+    <t>Update package.json - add start script</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{
+    "name": "npmhelloworld",
+    "version": "1.0.0",
+    "description": "",
+    "main": "index.js",
+    "scripts": {
+        "test": "echo \"Error: no test specified\"",
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"start": "echo Running Start script"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+    },
+    "author": "Avinash Babu Donthu",
+    "license": "ISC"
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>run start script which is present in above package.json</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">npm run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>start</t>
+    </r>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\NPM\NPMHelloWorld&gt;npm run start
+&gt; npmhelloworld@1.0.0 start E:\Backup\JavaPrep\practiceProjects\NPM\NPMHelloWorld
+&gt; echo Running Start script
+Running Start script</t>
+  </si>
+  <si>
+    <t>retart script</t>
+  </si>
+  <si>
+    <t>if we have restart script in npm then it will run. Otherwise first stop script will run and then start script will run</t>
+  </si>
+  <si>
+    <t>package.json with start and stop scripts</t>
+  </si>
+  <si>
+    <t>{
+    "name": "npmhelloworld",
+    "version": "1.0.0",
+    "description": "",
+    "main": "index.js",
+    "scripts": {
+        "test": "echo \"Error: no test specified\"",
+        "start": "echo Running Start script",
+        "stop": "echo Running Stop script"
+    },
+    "author": "Avinash Babu Donthu",
+    "license": "ISC"
+}</t>
+  </si>
+  <si>
+    <t>npm run restart</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\NPM\NPMHelloWorld&gt;npm run restart
+&gt; npmhelloworld@1.0.0 stop E:\Backup\JavaPrep\practiceProjects\NPM\NPMHelloWorld
+&gt; echo Running Stop script
+Running Stop script
+&gt; npmhelloworld@1.0.0 start E:\Backup\JavaPrep\practiceProjects\NPM\NPMHelloWorld
+&gt; echo Running Start script
+Running Start script</t>
+  </si>
+  <si>
+    <t>npm means</t>
+  </si>
+  <si>
+    <t>node package manager</t>
+  </si>
+  <si>
+    <t>npm test runner package tool</t>
+  </si>
+  <si>
+    <t>mocha</t>
+  </si>
+  <si>
+    <t>npm test runner with assertion - tool</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>install mocha and should using npm</t>
+  </si>
+  <si>
+    <t>npm install mocha should --save-dev</t>
+  </si>
+  <si>
+    <t>npm install mocha should</t>
+  </si>
+  <si>
+    <t>install mocha and should tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --save-dev</t>
+  </si>
+  <si>
+    <t>1. install packages into our local node_modules folder (which will be created in our project folder)
+2. updates our package.json file.
+3. makes mocha command available for us to run in our scripts</t>
+  </si>
+  <si>
+    <t>package.json after above installation</t>
+  </si>
+  <si>
+    <t>{
+    "name": "npmhelloworld",
+    "version": "1.0.0",
+    "description": "",
+    "main": "index.js",
+    "scripts": {
+        "test": "echo \"Error: no test specified\"",
+        "start": "echo Running Start script",
+        "stop": "echo Running Stop script"
+    },
+    "author": "Avinash Babu Donthu",
+    "license": "ISC",
+    "devDependencies": {
+        "mocha": "^3.4.2",
+        "should": "^11.2.1"
+    }
+}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +307,13 @@
       <u/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -198,7 +373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -230,6 +405,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -240,6 +418,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -601,10 +783,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
@@ -621,14 +803,14 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="14"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -638,10 +820,10 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="14"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
@@ -675,11 +857,11 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
@@ -703,11 +885,11 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -729,11 +911,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -751,10 +933,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="14"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
@@ -765,10 +947,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="14"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
@@ -778,58 +960,176 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30">
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
       <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="11" t="s">
+    <row r="10" spans="1:2">
+      <c r="A10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="60">
-      <c r="A10" s="11" t="s">
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B11" s="11" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>26</v>
       </c>
     </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="180">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="90">
+      <c r="A18" s="18"/>
+      <c r="B18" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="195">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="165">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="45">
+      <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="255">
+      <c r="A27" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A17:A18"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B1" location="NPM!A2" display="Up"/>
@@ -837,5 +1137,6 @@
     <hyperlink ref="B3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Definitions/q_Definitions_Node_JS.xlsx
+++ b/Definitions/q_Definitions_Node_JS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>Topics</t>
   </si>
@@ -220,13 +220,7 @@
     <t>node package manager</t>
   </si>
   <si>
-    <t>npm test runner package tool</t>
-  </si>
-  <si>
     <t>mocha</t>
-  </si>
-  <si>
-    <t>npm test runner with assertion - tool</t>
   </si>
   <si>
     <t>should</t>
@@ -272,6 +266,83 @@
         "should": "^11.2.1"
     }
 }</t>
+  </si>
+  <si>
+    <t>tool to run test cases using npm</t>
+  </si>
+  <si>
+    <t>tool to use assertions while doing npm test</t>
+  </si>
+  <si>
+    <t>npm install mocha should --save-dev -g</t>
+  </si>
+  <si>
+    <t>install mocha and should using npm and add mocha to path so that we can execute mocha in cmd</t>
+  </si>
+  <si>
+    <t>install mocha using -g flag then run test script</t>
+  </si>
+  <si>
+    <t>1. create folder test
+2. create test.js file
+3. run test cases using mocha using this command "mocha test -u bdd -R spec"</t>
+  </si>
+  <si>
+    <t>It is difficult to run above test command always so move it to package.json</t>
+  </si>
+  <si>
+    <t>{
+    "name": "npmhelloworld",
+    "version": "1.0.0",
+    "description": "",
+    "main": "index.js",
+    "scripts": {
+        "test": "mocha test -u bdd -R spec",
+        "start": "echo Running Start script",
+        "stop": "echo Running Stop script"
+    },
+    "author": "Avinash Babu Donthu",
+    "license": "ISC",
+    "devDependencies": {
+        "mocha": "^3.4.2",
+        "should": "^11.2.1"
+    }
+}</t>
+  </si>
+  <si>
+    <t>npm flags</t>
+  </si>
+  <si>
+    <t>https://www.npmjs.com/browse/keyword/flags</t>
+  </si>
+  <si>
+    <t>now we can run test cases using npm</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\NPM\NPMHelloWorld&gt;npm run test
+&gt; npmhelloworld@1.0.0 test E:\Backup\JavaPrep\practiceProjects\NPM\NPMHelloWorld
+&gt; mocha test -u bdd -R spec
+  A very simple test
+    √ is running now
+  1 passing (13ms)</t>
+  </si>
+  <si>
+    <t>To see installed package's available commands to run</t>
+  </si>
+  <si>
+    <t>node_modules -&gt; .bin folder</t>
+  </si>
+  <si>
+    <t>install koa</t>
+  </si>
+  <si>
+    <t>npm install koa -g --save-dev</t>
+  </si>
+  <si>
+    <t>see less verbose output</t>
+  </si>
+  <si>
+    <t>npm run test -s</t>
   </si>
 </sst>
 </file>
@@ -373,7 +444,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -407,6 +478,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -418,10 +496,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -783,10 +857,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
@@ -803,14 +877,14 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="14"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15"/>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -820,10 +894,10 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="14"/>
+      <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="11"/>
@@ -857,11 +931,11 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="13"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13"/>
+      <c r="A22" s="16"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
@@ -885,11 +959,11 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="13"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="13"/>
+      <c r="A29" s="16"/>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -911,16 +985,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A27" sqref="A27"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" style="14" customWidth="1"/>
     <col min="2" max="2" width="121.5703125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -933,27 +1007,35 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
+      <c r="A6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="B6" t="s">
@@ -961,7 +1043,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
       <c r="B7" t="s">
@@ -969,7 +1051,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" t="s">
+      <c r="A8" s="14" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -977,7 +1059,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" t="s">
+      <c r="A9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -985,7 +1067,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="14" t="s">
         <v>17</v>
       </c>
       <c r="B10" t="s">
@@ -993,7 +1075,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -1001,7 +1083,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="A12" s="14" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -1009,7 +1091,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
+      <c r="A13" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -1017,7 +1099,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="19" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="12" t="s">
@@ -1025,13 +1107,13 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="19"/>
       <c r="B15" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" t="s">
+      <c r="A16" s="14" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="12" t="s">
@@ -1039,7 +1121,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="12" t="s">
@@ -1047,13 +1129,13 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="12" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="12" t="s">
@@ -1061,7 +1143,7 @@
       </c>
     </row>
     <row r="20" spans="1:2" ht="195">
-      <c r="A20" t="s">
+      <c r="A20" s="14" t="s">
         <v>37</v>
       </c>
       <c r="B20" s="12" t="s">
@@ -1069,7 +1151,7 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="165">
-      <c r="A21" t="s">
+      <c r="A21" s="14" t="s">
         <v>39</v>
       </c>
       <c r="B21" s="12" t="s">
@@ -1077,51 +1159,107 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
+      <c r="A22" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B22" s="12" t="s">
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B24" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" s="15" customFormat="1" ht="30">
+      <c r="A25" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B27" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="45">
-      <c r="A26" t="s">
+    <row r="28" spans="1:2" ht="255">
+      <c r="A28" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B28" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="255">
-      <c r="A27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>54</v>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="255">
+      <c r="A30" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="120">
+      <c r="A31" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1135,8 +1273,9 @@
     <hyperlink ref="B1" location="NPM!A2" display="Up"/>
     <hyperlink ref="A1" location="Topics!A3" display="Topics"/>
     <hyperlink ref="B3" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/Definitions/q_Definitions_Node_JS.xlsx
+++ b/Definitions/q_Definitions_Node_JS.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
-    <sheet name="Definitions" sheetId="2" r:id="rId2"/>
+    <sheet name="NodeJS" sheetId="2" r:id="rId2"/>
     <sheet name="NPM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
   <si>
     <t>Topics</t>
   </si>
@@ -34,11 +34,6 @@
   </si>
   <si>
     <t>Node is comprised of 3 building blocks</t>
-  </si>
-  <si>
-    <t>1. libuv: high performance cross platform evented I/O library
-2. V8: Google's javascript engine
-2. custom C++, js: custom C++ and javascript code developed specifically for node platform only</t>
   </si>
   <si>
     <t>Node JS Definitions</t>
@@ -343,6 +338,17 @@
   </si>
   <si>
     <t>npm run test -s</t>
+  </si>
+  <si>
+    <t>What is Node.js</t>
+  </si>
+  <si>
+    <t>Node js is server side javascript platform created by Ryan Dahl in 2009</t>
+  </si>
+  <si>
+    <t>1. libuv: high performance, cross platform evented I/O library
+2. V8: Google's javascript engine (also used in Google Chrome)
+2. custom C++, js: custom C++ and javascript code developed specifically for node platform only</t>
   </si>
 </sst>
 </file>
@@ -466,25 +472,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -796,7 +802,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -815,18 +821,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" location="Topics!A2" display="Up"/>
-    <hyperlink ref="A2" location="Definitions!A1" display="Definitions"/>
+    <hyperlink ref="A2" location="NodeJS!A1" display="Node JS Definitions"/>
     <hyperlink ref="A3" location="NPM!A1" display="NPM"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -837,9 +843,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A16" sqref="A16:B17"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,23 +906,31 @@
       <c r="B12" s="17"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
     </row>
     <row r="14" spans="1:2" ht="45">
       <c r="A14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="8" t="s">
-        <v>6</v>
+      <c r="B14" s="15" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>16</v>
+      <c r="A15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -987,15 +1001,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" style="14" customWidth="1"/>
-    <col min="2" max="2" width="121.5703125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="121.5703125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1013,19 +1027,19 @@
       <c r="B2" s="17"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="12" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1035,231 +1049,231 @@
       <c r="B5" s="17"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="30">
+      <c r="A8" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30">
+      <c r="A9" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="60">
+      <c r="A11" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="11" t="s">
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="19"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="180">
+      <c r="A16" s="13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="14" t="s">
+      <c r="B16" s="11" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="16"/>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="14" t="s">
+      <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="12" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="195">
+      <c r="A20" s="13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="195">
-      <c r="A20" s="14" t="s">
+      <c r="B20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="12" t="s">
+    </row>
+    <row r="21" spans="1:2" ht="165">
+      <c r="A21" s="13" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="165">
-      <c r="A21" s="14" t="s">
+      <c r="B21" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="12" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="14" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" s="14" customFormat="1" ht="30">
+      <c r="A25" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B23" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="12" t="s">
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" s="15" customFormat="1" ht="30">
-      <c r="A25" s="14" t="s">
+      <c r="B26" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="45">
+      <c r="A27" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="255">
+      <c r="A28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45">
+      <c r="A29" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="255">
-      <c r="A28" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="14" t="s">
+    </row>
+    <row r="30" spans="1:2" ht="255">
+      <c r="A30" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="255">
-      <c r="A30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="14" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="31" spans="1:2" ht="120">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B31" s="14" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="14" t="s">
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="13" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="14" t="s">
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="13" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="B34" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/q_Definitions_Node_JS.xlsx
+++ b/Definitions/q_Definitions_Node_JS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
   <si>
     <t>Topics</t>
   </si>
@@ -349,6 +349,12 @@
     <t>1. libuv: high performance, cross platform evented I/O library
 2. V8: Google's javascript engine (also used in Google Chrome)
 2. custom C++, js: custom C++ and javascript code developed specifically for node platform only</t>
+  </si>
+  <si>
+    <t>install bootstrap using npm</t>
+  </si>
+  <si>
+    <t>npm install bootstrap --save</t>
   </si>
 </sst>
 </file>
@@ -450,7 +456,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -488,6 +494,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -843,7 +852,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
@@ -863,10 +872,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
@@ -883,14 +892,14 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="18"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -900,10 +909,10 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10"/>
@@ -945,11 +954,11 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
@@ -973,11 +982,11 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="16"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -999,11 +1008,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A35" sqref="A35:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1021,10 +1030,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -1043,10 +1052,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="17"/>
+      <c r="B5" s="18"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
@@ -1113,7 +1122,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="20" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1121,7 +1130,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1144,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1143,7 +1152,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="16"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
@@ -1274,6 +1283,14 @@
       </c>
       <c r="B34" s="13" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/q_Definitions_Node_JS.xlsx
+++ b/Definitions/q_Definitions_Node_JS.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>Topics</t>
   </si>
@@ -355,6 +355,53 @@
   </si>
   <si>
     <t>npm install bootstrap --save</t>
+  </si>
+  <si>
+    <t>create package.json</t>
+  </si>
+  <si>
+    <t>1. Create a new folder
+2. npm init</t>
+  </si>
+  <si>
+    <t>install babel and babel-cli: using npm</t>
+  </si>
+  <si>
+    <t>E:\Backup\JavaPrep\practiceProjects\ReactJsProjects\ReactJSHelloWorld&gt;npm install -g babel
+E:\Backup\JavaPrep\practiceProjects\ReactJsProjects\ReactJSHelloWorld&gt;npm install -g babel-cli</t>
+  </si>
+  <si>
+    <t>intall webpack, webpack-dev-server using npm: --save command will add these packages to package.json</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;npm install webpack --save
+C:\Users\username\Desktop\reactApp&gt;npm install webpack-dev-server --save
+C:\Users\username\Desktop\reactApp&gt;npm install webpack-dev-server -g</t>
+  </si>
+  <si>
+    <t>install react, react-dom using npms:</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;npm install react --save
+C:\Users\username\Desktop\reactApp&gt;npm install react-dom --save</t>
+  </si>
+  <si>
+    <t>install some more babel plugins using npm:</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;npm install babel-core --save
+C:\Users\username\Desktop\reactApp&gt;npm install babel-loader --save
+C:\Users\username\Desktop\reactApp&gt;npm install babel-preset-react --save
+C:\Users\username\Desktop\reactApp&gt;npm install babel-preset-es2015 --save</t>
+  </si>
+  <si>
+    <t>Create the Files:</t>
+  </si>
+  <si>
+    <t>C:\Users\username\Desktop\reactApp&gt;touch index.html
+C:\Users\username\Desktop\reactApp&gt;touch App.jsx
+C:\Users\username\Desktop\reactApp&gt;touch main.js
+C:\Users\username\Desktop\reactApp&gt;touch webpack.config.js</t>
   </si>
 </sst>
 </file>
@@ -456,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -494,6 +541,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -872,10 +922,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1"/>
@@ -892,14 +942,14 @@
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="19"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1"/>
@@ -909,10 +959,10 @@
       <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="10"/>
@@ -954,11 +1004,11 @@
       <c r="B20" s="1"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="1"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1"/>
     </row>
     <row r="23" spans="1:2">
@@ -982,11 +1032,11 @@
       <c r="B27" s="1"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="17"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="17"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="1"/>
     </row>
   </sheetData>
@@ -1008,11 +1058,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A35" sqref="A35:B35"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1030,10 +1080,10 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="18"/>
+      <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="13" t="s">
@@ -1052,10 +1102,10 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="13" t="s">
@@ -1122,7 +1172,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -1130,7 +1180,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="11" t="s">
         <v>28</v>
       </c>
@@ -1144,7 +1194,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -1152,7 +1202,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
-      <c r="A18" s="17"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="11" t="s">
         <v>33</v>
       </c>
@@ -1291,6 +1341,54 @@
       </c>
       <c r="B35" s="16" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="30">
+      <c r="A36" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="30">
+      <c r="A37" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="45">
+      <c r="A38" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="30">
+      <c r="A39" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="60">
+      <c r="A40" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="60">
+      <c r="A41" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Definitions/q_Definitions_Node_JS.xlsx
+++ b/Definitions/q_Definitions_Node_JS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>Topics</t>
   </si>
@@ -402,6 +402,18 @@
 C:\Users\username\Desktop\reactApp&gt;touch App.jsx
 C:\Users\username\Desktop\reactApp&gt;touch main.js
 C:\Users\username\Desktop\reactApp&gt;touch webpack.config.js</t>
+  </si>
+  <si>
+    <t>Materials</t>
+  </si>
+  <si>
+    <t>Pluralsight</t>
+  </si>
+  <si>
+    <t>Introduction to Node.js</t>
+  </si>
+  <si>
+    <t>Advanced Node.js</t>
   </si>
 </sst>
 </file>
@@ -503,13 +515,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -551,6 +562,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -561,6 +575,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -871,10 +888,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -902,9 +919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -914,29 +931,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="19" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3"/>
+      <c r="A3" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4"/>
+      <c r="A5" s="3"/>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" s="2"/>
@@ -965,30 +990,30 @@
       <c r="B12" s="19"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2" ht="45">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="30">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1051,8 +1076,11 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Topics!A2" display="Topics"/>
     <hyperlink ref="B1" location="Definitions!A2" display="Up"/>
+    <hyperlink ref="B3" r:id="rId1" tooltip="Introduction to Node.js" display="https://app.pluralsight.com/library/courses/node-intro"/>
+    <hyperlink ref="B4" r:id="rId2" tooltip="Advanced Node.js" display="https://app.pluralsight.com/library/courses/nodejs-advanced"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1060,22 +1088,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="64.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="121.5703125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="64.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="121.5703125" style="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1086,18 +1114,18 @@
       <c r="B2" s="19"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1108,7 +1136,7 @@
       <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B6" t="s">
@@ -1116,7 +1144,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
@@ -1124,23 +1152,23 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="30">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B10" t="s">
@@ -1148,26 +1176,26 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="60">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1175,21 +1203,21 @@
       <c r="A14" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="21"/>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="180">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -1197,197 +1225,197 @@
       <c r="A17" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="90">
       <c r="A18" s="18"/>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="195">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="165">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="14" customFormat="1" ht="30">
-      <c r="A25" s="13" t="s">
+    <row r="25" spans="1:2" s="13" customFormat="1" ht="30">
+      <c r="A25" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="45">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="255">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="255">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="120">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="30">
-      <c r="A36" s="17" t="s">
+      <c r="A36" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="16" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="30">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="16" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="45">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="16" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="30">
-      <c r="A39" s="17" t="s">
+      <c r="A39" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="16" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="60">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="16" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="60">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="B41" s="16" t="s">
         <v>86</v>
       </c>
     </row>
